--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1560713.385576998</v>
+        <v>1593291.600092196</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584665</v>
+        <v>460545.8926584663</v>
       </c>
     </row>
     <row r="8">
@@ -662,64 +664,64 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78.2008536957747</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>131.9286490126096</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>217.0275780651082</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>190.167558667311</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>185.0333587736945</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>30.24678523090114</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.76725235438</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>196.4321170760517</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>376.1670824147893</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>169.8718487447255</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>159.6088509072825</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>129.2653461765491</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>412.0311578398786</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>226.5674513251595</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>85.50129172214159</v>
       </c>
       <c r="U15" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>150.6847227126468</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>128.3004358894264</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>383.1282703720283</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1926,22 +1928,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>87.08036771626205</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>6.456834824088095</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2044,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>228.4010902861367</v>
       </c>
       <c r="W19" t="n">
-        <v>88.59832967195071</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>364.024458873444</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>96.26757873844505</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,10 +2165,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2208,13 +2210,13 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>147.6938511001821</v>
       </c>
     </row>
     <row r="22">
@@ -2281,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>2.781652662641354</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>116.1611518470177</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>372.8825211933763</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>18.66629832321886</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>17.93784657305854</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2415,7 +2417,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2454,13 +2456,13 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>75.49458165574123</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.15718953603334</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>70.48633311208263</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>324.7801585504183</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>84.67648510283087</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>17.93784657305899</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>106.238752975047</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>115.9274873119628</v>
       </c>
       <c r="U28" t="n">
-        <v>268.7418428881288</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1569439836617</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>136.4417058702706</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2880,13 +2882,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>91.68674581998047</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>33.1802809225113</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>61.15426918750887</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>340.8226217173241</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -3089,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>49.16110254866052</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,19 +3113,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -3162,7 +3164,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>10.26473456986104</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>93.72700595910894</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>122.307880241559</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>109.7384251876795</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>20.2774677875459</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>99.14237835397452</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>52.28744435919795</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>24.6481577642662</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.48436605885001</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.781652662641354</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>373.5963166213542</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3566,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.369312935458217</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3584,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>34.31317680226898</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3600,7 +3602,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>60.36693997173198</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.87367887893897</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>13.63855752214131</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>18.03733651727307</v>
+        <v>200.2764367340749</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>89.18211739820521</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3876,10 +3878,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>46.26107291915861</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.05059883298339</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R43" t="n">
-        <v>50.15718953603332</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>203.8766041230045</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1809510946774</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4056,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>91.68674581998047</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>141.4919670529475</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4144,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>10.54215419659328</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>191.2591398496931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,10 +4415,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>830.7958938817376</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="W3" t="n">
-        <v>259.0600686093459</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="X3" t="n">
-        <v>259.0600686093459</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>602.5722756181267</v>
       </c>
     </row>
     <row r="4">
@@ -4504,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.2693145670932</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>259.2693145670932</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1958.149982018095</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="C11" t="n">
-        <v>1589.187465077683</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.921766470932</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="E11" t="n">
-        <v>845.1335138726881</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F11" t="n">
-        <v>465.1667639587595</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2098.788550986472</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1767.725663642902</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1414.957008372787</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1041.491250111708</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G12" t="n">
         <v>221.6448824165167</v>
@@ -5121,7 +5123,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L12" t="n">
         <v>705.6153558007836</v>
@@ -5145,25 +5147,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.516266982771</v>
+        <v>2183.528760559709</v>
       </c>
       <c r="T12" t="n">
-        <v>2183.516266982771</v>
+        <v>1983.986062613739</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.805598267897</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.653490036154</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.416133307952</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.56463310242</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>850.8043343374655</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>249.207965794304</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>249.207965794304</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>249.207965794304</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>249.207965794304</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I13" t="n">
         <v>102.3180182963936</v>
@@ -5200,7 +5202,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5227,22 +5229,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>477.1975166923213</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>477.1975166923213</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>477.1975166923213</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>477.1975166923213</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>249.207965794304</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>249.207965794304</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2115.893810642661</v>
+        <v>1369.761180647701</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1369.761180647701</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>1369.761180647701</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>1369.761180647701</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>958.7752758580937</v>
       </c>
       <c r="G14" t="n">
         <v>542.5821871309436</v>
@@ -5276,13 +5278,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5309,19 +5311,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.893810642661</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W14" t="n">
-        <v>2115.893810642661</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="X14" t="n">
-        <v>2115.893810642661</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="Y14" t="n">
-        <v>2115.893810642661</v>
+        <v>1369.761180647701</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>735.3105217676085</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>560.8574924864815</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>411.9230828252303</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5355,25 +5357,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5382,25 +5384,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2284.306083296871</v>
+        <v>2036.70758706395</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1808.527122718107</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1573.375014486365</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1319.137657758163</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1111.28615755263</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>903.5258587876765</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>929.5804400319823</v>
+        <v>1286.788427385932</v>
       </c>
       <c r="C17" t="n">
-        <v>929.5804400319823</v>
+        <v>917.8259104455201</v>
       </c>
       <c r="D17" t="n">
-        <v>929.5804400319823</v>
+        <v>917.8259104455201</v>
       </c>
       <c r="E17" t="n">
-        <v>929.5804400319823</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F17" t="n">
-        <v>929.5804400319823</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q17" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="X17" t="n">
-        <v>929.5804400319823</v>
+        <v>1676.927759361743</v>
       </c>
       <c r="Y17" t="n">
-        <v>929.5804400319823</v>
+        <v>1286.788427385932</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D18" t="n">
-        <v>447.6797356739884</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E18" t="n">
-        <v>447.6797356739884</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
         <v>1486.172378671464</v>
@@ -5616,28 +5618,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="19">
@@ -5674,40 +5676,40 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424309</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="U19" t="n">
-        <v>391.0727469424309</v>
+        <v>277.603168447843</v>
       </c>
       <c r="V19" t="n">
-        <v>136.388258736544</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W19" t="n">
         <v>46.89499644164432</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.544891781203</v>
+        <v>1185.109116778414</v>
       </c>
       <c r="C20" t="n">
-        <v>825.5823748407913</v>
+        <v>816.1465998380024</v>
       </c>
       <c r="D20" t="n">
-        <v>825.5823748407913</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E20" t="n">
-        <v>825.5823748407913</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F20" t="n">
-        <v>414.5964700511838</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
         <v>46.89499644164432</v>
@@ -5750,52 +5752,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q20" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X20" t="n">
-        <v>1971.284063821136</v>
+        <v>1185.109116778414</v>
       </c>
       <c r="Y20" t="n">
-        <v>1581.144731845325</v>
+        <v>1185.109116778414</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>680.7073555380667</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E21" t="n">
         <v>506.2543262569397</v>
@@ -5829,16 +5831,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076323</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161161</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832905</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N21" t="n">
         <v>1486.172378671464</v>
@@ -5856,25 +5858,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>848.9226925581347</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5913,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200977</v>
@@ -5929,19 +5931,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R22" t="n">
-        <v>453.4106385108906</v>
+        <v>563.9745635376357</v>
       </c>
       <c r="S22" t="n">
-        <v>453.4106385108906</v>
+        <v>563.9745635376357</v>
       </c>
       <c r="T22" t="n">
-        <v>453.4106385108906</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="U22" t="n">
-        <v>164.2294932568137</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V22" t="n">
         <v>46.89499644164432</v>
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.89499644164432</v>
+        <v>754.3641511654837</v>
       </c>
       <c r="C23" t="n">
-        <v>46.89499644164432</v>
+        <v>754.3641511654837</v>
       </c>
       <c r="D23" t="n">
-        <v>46.89499644164432</v>
+        <v>396.0984525587332</v>
       </c>
       <c r="E23" t="n">
-        <v>46.89499644164432</v>
+        <v>396.0984525587332</v>
       </c>
       <c r="F23" t="n">
-        <v>46.89499644164432</v>
+        <v>396.0984525587332</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>396.0984525587332</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>65.74984323277448</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O23" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P23" t="n">
         <v>2224.886645733486</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T23" t="n">
-        <v>2124.767062713794</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U23" t="n">
-        <v>1870.980640598661</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="V23" t="n">
-        <v>1539.917753255091</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="W23" t="n">
-        <v>1187.149097984977</v>
+        <v>1514.429749490685</v>
       </c>
       <c r="X23" t="n">
-        <v>813.6833397238968</v>
+        <v>1140.963991229605</v>
       </c>
       <c r="Y23" t="n">
-        <v>423.5440077480851</v>
+        <v>1140.963991229605</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>772.2290650326996</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K24" t="n">
-        <v>273.126860749845</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>642.6780758583288</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6102,16 +6104,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1695.349365905614</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W24" t="n">
-        <v>1441.112009177413</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>118.0933127164753</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>118.0933127164753</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>118.0933127164753</v>
       </c>
       <c r="E25" t="n">
         <v>46.89499644164432</v>
@@ -6148,7 +6150,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L25" t="n">
         <v>194.9121237200977</v>
@@ -6166,31 +6168,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T25" t="n">
-        <v>607.7685734363101</v>
+        <v>338.8858918600054</v>
       </c>
       <c r="U25" t="n">
-        <v>607.7685734363101</v>
+        <v>338.8858918600054</v>
       </c>
       <c r="V25" t="n">
-        <v>607.7685734363101</v>
+        <v>338.8858918600054</v>
       </c>
       <c r="W25" t="n">
-        <v>318.3514033993495</v>
+        <v>338.8858918600054</v>
       </c>
       <c r="X25" t="n">
-        <v>318.3514033993495</v>
+        <v>338.8858918600054</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.55882425581942</v>
+        <v>118.0933127164753</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>801.6457659803002</v>
+        <v>793.2275301713032</v>
       </c>
       <c r="C26" t="n">
-        <v>432.6832490398886</v>
+        <v>793.2275301713032</v>
       </c>
       <c r="D26" t="n">
-        <v>432.6832490398886</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E26" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164432</v>
@@ -6224,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6242,34 +6244,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q26" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991245</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129221</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.198404760799</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V26" t="n">
-        <v>1527.880179511494</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W26" t="n">
-        <v>1175.11152424138</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="X26" t="n">
-        <v>801.6457659803002</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="Y26" t="n">
-        <v>801.6457659803002</v>
+        <v>793.2275301713032</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>783.3663200545598</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C27" t="n">
-        <v>608.9132907734328</v>
+        <v>615.8950726940565</v>
       </c>
       <c r="D27" t="n">
-        <v>459.9788811121815</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E27" t="n">
-        <v>300.741426106726</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F27" t="n">
-        <v>154.206868133611</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6303,25 +6305,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498445</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583284</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6330,25 +6332,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2084.763385350901</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1621.430812773316</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.193456045115</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>1159.341955839582</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y27" t="n">
-        <v>951.5816570746279</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="U28" t="n">
-        <v>2073.29341512451</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V28" t="n">
-        <v>2073.29341512451</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>405.1606950483948</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="C29" t="n">
-        <v>405.1606950483948</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="D29" t="n">
-        <v>46.89499644164432</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E29" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F29" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G29" t="n">
         <v>46.89499644164432</v>
@@ -6467,7 +6469,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376118</v>
@@ -6494,19 +6496,19 @@
         <v>1867.198404760799</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645667</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="V29" t="n">
-        <v>1282.349095302096</v>
+        <v>1561.989370433868</v>
       </c>
       <c r="W29" t="n">
-        <v>929.5804400319819</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="X29" t="n">
-        <v>791.7605351125167</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="Y29" t="n">
-        <v>791.7605351125167</v>
+        <v>1209.220715163754</v>
       </c>
     </row>
     <row r="30">
@@ -6528,10 +6530,10 @@
         <v>139.5078710072812</v>
       </c>
       <c r="F30" t="n">
-        <v>46.89499644164432</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>379.8701515943956</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="C31" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>379.8701515943956</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
         <v>46.89499644164432</v>
@@ -6640,31 +6642,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T31" t="n">
-        <v>379.8701515943956</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="U31" t="n">
-        <v>379.8701515943956</v>
+        <v>277.603168447843</v>
       </c>
       <c r="V31" t="n">
-        <v>379.8701515943956</v>
+        <v>277.603168447843</v>
       </c>
       <c r="W31" t="n">
-        <v>379.8701515943956</v>
+        <v>277.603168447843</v>
       </c>
       <c r="X31" t="n">
-        <v>379.8701515943956</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="Y31" t="n">
-        <v>379.8701515943956</v>
+        <v>215.8311793695512</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1490.260073913009</v>
+        <v>925.4613692073401</v>
       </c>
       <c r="C32" t="n">
-        <v>1121.297556972598</v>
+        <v>556.4988522669285</v>
       </c>
       <c r="D32" t="n">
-        <v>763.0318583658473</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E32" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F32" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G32" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6722,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713794</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U32" t="n">
-        <v>1870.980640598661</v>
+        <v>2016.589854876112</v>
       </c>
       <c r="V32" t="n">
-        <v>1539.917753255091</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W32" t="n">
-        <v>1490.260073913009</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="X32" t="n">
-        <v>1490.260073913009</v>
+        <v>1312.061209271462</v>
       </c>
       <c r="Y32" t="n">
-        <v>1490.260073913009</v>
+        <v>1312.061209271462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>839.9448105435223</v>
+        <v>735.3105217676085</v>
       </c>
       <c r="C33" t="n">
-        <v>665.4917812623953</v>
+        <v>560.8574924864815</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>411.9230828252303</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H33" t="n">
         <v>114.6107419524668</v>
@@ -6777,25 +6779,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498445</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583284</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6810,19 +6812,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1913.161411494021</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1678.009303262279</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W33" t="n">
-        <v>1423.771946534077</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1215.920446328544</v>
+        <v>1111.28615755263</v>
       </c>
       <c r="Y33" t="n">
-        <v>1008.16014756359</v>
+        <v>903.5258587876765</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>170.4383098169564</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>170.4383098169564</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>170.4383098169564</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>170.4383098169564</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
         <v>46.89499644164432</v>
@@ -6877,31 +6879,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363101</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363101</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363101</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W34" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>436.3398040765468</v>
+        <v>1542.980280095866</v>
       </c>
       <c r="C35" t="n">
-        <v>67.37728713613512</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="D35" t="n">
-        <v>46.89499644164432</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6935,10 +6937,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
         <v>762.5916738244548</v>
@@ -6947,10 +6949,10 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O35" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P35" t="n">
         <v>2224.886645733486</v>
@@ -6962,25 +6964,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991245</v>
+        <v>2170.232460472079</v>
       </c>
       <c r="T35" t="n">
-        <v>2270.376276991245</v>
+        <v>2170.232460472079</v>
       </c>
       <c r="U35" t="n">
-        <v>2270.376276991245</v>
+        <v>1916.446038356946</v>
       </c>
       <c r="V35" t="n">
-        <v>1939.313389647674</v>
+        <v>1916.446038356946</v>
       </c>
       <c r="W35" t="n">
-        <v>1586.54473437756</v>
+        <v>1916.446038356946</v>
       </c>
       <c r="X35" t="n">
-        <v>1213.07897611648</v>
+        <v>1542.980280095866</v>
       </c>
       <c r="Y35" t="n">
-        <v>822.9396441406686</v>
+        <v>1542.980280095866</v>
       </c>
     </row>
     <row r="36">
@@ -6993,13 +6995,13 @@
         <v>622.1327649551149</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739879</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127367</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E36" t="n">
-        <v>139.5078710072812</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F36" t="n">
         <v>114.6107419524668</v>
@@ -7020,7 +7022,7 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>491.2196383161157</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M36" t="n">
         <v>974.44769738329</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>2138.758986819786</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>1979.782424143199</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q37" t="n">
-        <v>2307.896927073276</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R37" t="n">
-        <v>2307.896927073276</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S37" t="n">
-        <v>2307.896927073276</v>
+        <v>563.9745635376357</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.896927073276</v>
+        <v>336.0761416957212</v>
       </c>
       <c r="U37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>2307.896927073276</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7174,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
@@ -7214,10 +7216,10 @@
         <v>1183.366862147114</v>
       </c>
       <c r="X38" t="n">
-        <v>809.9011038860347</v>
+        <v>1183.366862147114</v>
       </c>
       <c r="Y38" t="n">
-        <v>802.4573534461779</v>
+        <v>793.2275301713028</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>587.4729904073685</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7257,19 +7259,19 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7281,22 +7283,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2062.095821155272</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2128.053995588336</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>1959.11781266043</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>1809.001173248094</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S40" t="n">
-        <v>2128.053995588336</v>
+        <v>350.0884872080406</v>
       </c>
       <c r="T40" t="n">
-        <v>2128.053995588336</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="U40" t="n">
-        <v>2128.053995588336</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V40" t="n">
-        <v>2128.053995588336</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W40" t="n">
-        <v>2128.053995588336</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>2128.053995588336</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>2128.053995588336</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1592.28953067257</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C41" t="n">
-        <v>1592.28953067257</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D41" t="n">
-        <v>1592.28953067257</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E41" t="n">
-        <v>1206.501278074326</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7409,22 +7411,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O41" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P41" t="n">
         <v>2224.886645733486</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S41" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T41" t="n">
-        <v>1941.57194985177</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="U41" t="n">
-        <v>1923.352418016141</v>
+        <v>1848.094086578303</v>
       </c>
       <c r="V41" t="n">
-        <v>1592.28953067257</v>
+        <v>1517.031199234732</v>
       </c>
       <c r="W41" t="n">
-        <v>1592.28953067257</v>
+        <v>1164.262543964618</v>
       </c>
       <c r="X41" t="n">
-        <v>1592.28953067257</v>
+        <v>1164.262543964618</v>
       </c>
       <c r="Y41" t="n">
-        <v>1592.28953067257</v>
+        <v>774.1232119888066</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>829.641765199318</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C42" t="n">
-        <v>655.188735918191</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D42" t="n">
-        <v>506.2543262569397</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E42" t="n">
         <v>506.2543262569397</v>
@@ -7488,16 +7490,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7512,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2254.666875215342</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2055.124177269372</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673871</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W42" t="n">
-        <v>1413.468901189873</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X42" t="n">
-        <v>1205.61740098434</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
-        <v>997.857102219386</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.89499644164432</v>
+        <v>385.1358488716802</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>385.1358488716802</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>385.1358488716802</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>385.1358488716802</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>238.2459013737698</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7588,31 +7590,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R43" t="n">
-        <v>557.1047456221351</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S43" t="n">
-        <v>557.1047456221351</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T43" t="n">
-        <v>557.1047456221351</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="U43" t="n">
-        <v>557.1047456221351</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="V43" t="n">
-        <v>557.1047456221351</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="W43" t="n">
-        <v>267.6875755851744</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="X43" t="n">
-        <v>267.6875755851744</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.89499644164432</v>
+        <v>566.7843137019199</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>542.5821871309436</v>
+        <v>621.7934771426667</v>
       </c>
       <c r="C44" t="n">
-        <v>542.5821871309436</v>
+        <v>252.830960202255</v>
       </c>
       <c r="D44" t="n">
-        <v>542.5821871309436</v>
+        <v>252.830960202255</v>
       </c>
       <c r="E44" t="n">
-        <v>542.5821871309436</v>
+        <v>252.830960202255</v>
       </c>
       <c r="F44" t="n">
-        <v>542.5821871309436</v>
+        <v>252.830960202255</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915533</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7676,22 +7678,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="V44" t="n">
-        <v>2013.686934738645</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="W44" t="n">
-        <v>1660.918279468531</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X44" t="n">
-        <v>1319.321359170877</v>
+        <v>1398.5326491826</v>
       </c>
       <c r="Y44" t="n">
-        <v>929.1820271950653</v>
+        <v>1008.393317206788</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551149</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739879</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D45" t="n">
-        <v>298.7453260127367</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E45" t="n">
-        <v>139.5078710072812</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F45" t="n">
-        <v>46.89499644164432</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7728,22 +7730,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1637.630816213676</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7758,19 +7760,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1780.608651410095</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673871</v>
+        <v>1545.456543178353</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1291.219186450151</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401369</v>
+        <v>1083.367686244618</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.348101975183</v>
+        <v>875.6073874796646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>412.4263787765004</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C46" t="n">
-        <v>412.4263787765004</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D46" t="n">
-        <v>412.4263787765004</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E46" t="n">
-        <v>412.4263787765004</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F46" t="n">
-        <v>412.4263787765004</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
         <v>46.89499644164432</v>
@@ -7825,31 +7827,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q46" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R46" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S46" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T46" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U46" t="n">
-        <v>412.4263787765004</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="V46" t="n">
-        <v>412.4263787765004</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="W46" t="n">
-        <v>412.4263787765004</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="X46" t="n">
-        <v>412.4263787765004</v>
+        <v>414.5775230830848</v>
       </c>
       <c r="Y46" t="n">
-        <v>412.4263787765004</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108659</v>
       </c>
       <c r="M15" t="n">
-        <v>462.7376461954049</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998529</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>309.749325445695</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>261.497819457984</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574063</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K27" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991547</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579835</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574063</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>307.2673352605753</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928322</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574063</v>
       </c>
       <c r="N42" t="n">
-        <v>323.3866360392486</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473434</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>30.70896332692212</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23312,16 +23314,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>81.3767091492557</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23349,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.01236864116765446</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23467,7 +23469,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>96.35409144694634</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.057892002065387</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23549,10 +23551,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>101.1848071449755</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23583,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>112.045979244368</v>
       </c>
       <c r="U15" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>63.84414551629374</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>253.6299341828354</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>30.96077946991562</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23814,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>57.98884467712183</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.38246657340333</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>23.73655303769129</v>
       </c>
       <c r="W19" t="n">
-        <v>197.9246686646403</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>50.06459096849994</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>273.463521940024</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24114,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>57.98884467712224</v>
       </c>
     </row>
     <row r="22">
@@ -24169,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>150.032702913524</v>
       </c>
       <c r="S22" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>135.9764914768103</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.85132047010427</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24223,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>145.0188972264883</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>148.5953370768088</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24342,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>130.2784035477362</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.674790645904</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>75.94762953448654</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24415,7 +24417,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>29.90288307026469</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24497,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>243.075773367304</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>129.5072189915797</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24534,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>30.45538403358788</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24570,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>109.6919503115326</v>
       </c>
       <c r="U28" t="n">
-        <v>17.54749091340733</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
@@ -24734,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>25.59531448647323</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>233.2893948081985</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24768,13 +24770,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>53.38246657340341</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>14.27705323942895</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>134.2662799284443</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620182</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24889,10 +24891,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>164.5553862015283</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>13.86041990335889</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,10 +24934,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>300.0798661687525</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25050,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>215.6339251325233</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>112.0459792443685</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>16.77044538733261</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620182</v>
@@ -25117,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>115.8810124358159</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>334.4055738331371</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>82.22078337942932</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>120.4210546291178</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>120.4210546291177</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.090051078196311</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>211.7472155662992</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.137525042126356</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>378.8686257205954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>138.3953221860468</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>137.1803309947776</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>121.5602837676302</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>211.9808801013541</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>233.2112213767081</v>
+        <v>50.97212115990629</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25713,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>70.43910215024499</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25764,10 +25766,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>205.433910241761</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>135.3959620179722</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288916</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.657166040132</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
         <v>214.5288682289405</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>210.2124457189394</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>31.55014958379167</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25944,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>53.38246657340341</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>84.40669264943685</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26032,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>156.9044066543623</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
         <v>214.5288682289405</v>
@@ -26077,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>95.03019395184305</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620938.3534568585</v>
+        <v>620938.3534568584</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620938.3534568584</v>
+        <v>620938.3534568585</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620938.3534568584</v>
+        <v>620938.3534568585</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620938.3534568587</v>
+        <v>620938.3534568584</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620938.3534568584</v>
+        <v>620938.3534568585</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620938.3534568587</v>
+        <v>620938.3534568584</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
         <v>356907.7346816904</v>
       </c>
       <c r="F2" t="n">
+        <v>356907.7346816904</v>
+      </c>
+      <c r="G2" t="n">
         <v>356907.7346816905</v>
       </c>
-      <c r="G2" t="n">
-        <v>356907.7346816906</v>
-      </c>
       <c r="H2" t="n">
+        <v>356907.7346816903</v>
+      </c>
+      <c r="I2" t="n">
         <v>356907.7346816905</v>
-      </c>
-      <c r="I2" t="n">
-        <v>356907.7346816904</v>
       </c>
       <c r="J2" t="n">
         <v>356907.7346816905</v>
@@ -26344,13 +26346,13 @@
         <v>356907.7346816905</v>
       </c>
       <c r="M2" t="n">
+        <v>356907.7346816904</v>
+      </c>
+      <c r="N2" t="n">
         <v>356907.7346816905</v>
       </c>
-      <c r="N2" t="n">
-        <v>356907.7346816904</v>
-      </c>
       <c r="O2" t="n">
-        <v>356907.7346816905</v>
+        <v>356907.7346816903</v>
       </c>
       <c r="P2" t="n">
         <v>356907.7346816904</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26448,7 +26450,7 @@
         <v>52974.8893495167</v>
       </c>
       <c r="M4" t="n">
-        <v>52974.88934951671</v>
+        <v>52974.8893495167</v>
       </c>
       <c r="N4" t="n">
         <v>52974.8893495167</v>
@@ -26522,25 +26524,25 @@
         <v>95821.962801088</v>
       </c>
       <c r="C6" t="n">
-        <v>176591.3943326356</v>
+        <v>176591.3943326357</v>
       </c>
       <c r="D6" t="n">
-        <v>176591.3943326355</v>
+        <v>176591.3943326353</v>
       </c>
       <c r="E6" t="n">
-        <v>-83901.21957222553</v>
+        <v>-83901.21957222559</v>
       </c>
       <c r="F6" t="n">
-        <v>261711.1232067273</v>
+        <v>261711.1232067271</v>
       </c>
       <c r="G6" t="n">
-        <v>261711.1232067273</v>
+        <v>261711.1232067272</v>
       </c>
       <c r="H6" t="n">
-        <v>261711.1232067273</v>
+        <v>261711.1232067271</v>
       </c>
       <c r="I6" t="n">
-        <v>261711.1232067271</v>
+        <v>261711.1232067272</v>
       </c>
       <c r="J6" t="n">
         <v>198651.180607621</v>
@@ -26555,10 +26557,10 @@
         <v>175692.5893866512</v>
       </c>
       <c r="N6" t="n">
+        <v>261711.1232067273</v>
+      </c>
+      <c r="O6" t="n">
         <v>261711.1232067271</v>
-      </c>
-      <c r="O6" t="n">
-        <v>261711.1232067272</v>
       </c>
       <c r="P6" t="n">
         <v>261711.1232067271</v>
@@ -26744,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>301.9048087062787</v>
+      </c>
+      <c r="F3" t="n">
         <v>301.9048087062786</v>
       </c>
-      <c r="F3" t="n">
-        <v>301.9048087062787</v>
-      </c>
       <c r="G3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
         <v>301.9048087062786</v>
@@ -26802,16 +26804,16 @@
         <v>586.1874555205541</v>
       </c>
       <c r="G4" t="n">
+        <v>586.187455520554</v>
+      </c>
+      <c r="H4" t="n">
+        <v>586.187455520554</v>
+      </c>
+      <c r="I4" t="n">
+        <v>586.187455520554</v>
+      </c>
+      <c r="J4" t="n">
         <v>586.1874555205541</v>
-      </c>
-      <c r="H4" t="n">
-        <v>586.1874555205541</v>
-      </c>
-      <c r="I4" t="n">
-        <v>586.1874555205541</v>
-      </c>
-      <c r="J4" t="n">
-        <v>586.187455520554</v>
       </c>
       <c r="K4" t="n">
         <v>586.187455520554</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,25 +27384,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>194.5906600982693</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>271.0401150216383</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>68.23607968221197</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.44478371083548</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>189.8484676766033</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,10 +27675,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27716,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>136.2759056302994</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>61.52742449360861</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>221.8426869680169</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,19 +27909,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>339.4843154475679</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.76593129548733</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,7 +27985,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>55.26286608486788</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28032,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31756,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31847,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,43 +31995,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,43 +32232,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J18" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H19" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L19" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N19" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T19" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
-        <v>424.4951865620585</v>
+        <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>156.722724872542</v>
       </c>
       <c r="M15" t="n">
-        <v>485.1417330183085</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K18" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36042,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>14.9231214167495</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685985</v>
       </c>
       <c r="N21" t="n">
         <v>516.8936174628016</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K24" t="n">
-        <v>228.5170346547482</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N24" t="n">
         <v>516.8936174628016</v>
@@ -36455,7 +36457,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>167.9114421664589</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2840556651352</v>
+        <v>217.3283173608307</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
@@ -36692,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547477</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
@@ -37166,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
-        <v>156.7227248725415</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M36" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N36" t="n">
         <v>516.8936174628016</v>
@@ -37558,7 +37560,7 @@
         <v>355.1946887874304</v>
       </c>
       <c r="P38" t="n">
-        <v>265.0955169306803</v>
+        <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
         <v>121.0739155037673</v>
@@ -37625,13 +37627,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
-        <v>309.7110456222513</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M39" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
@@ -37640,7 +37642,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107708</v>
       </c>
       <c r="N41" t="n">
         <v>424.4951865620588</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093428</v>
@@ -37865,10 +37867,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N42" t="n">
-        <v>360.9378791584966</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255822</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788805</v>
+        <v>91.0609347978879</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38096,7 +38098,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K45" t="n">
-        <v>167.9114421664589</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651352</v>
@@ -38111,10 +38113,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1593291.600092196</v>
+        <v>1551467.81842319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584663</v>
+        <v>460545.8926584661</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075578</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78.2008536957747</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>30.86155971440646</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9286490126096</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>217.0275780651082</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -961,7 +961,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>190.167558667311</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>30.24678523090114</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
     </row>
     <row r="9">
@@ -1262,22 +1262,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>196.4321170760517</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>169.8718487447255</v>
+        <v>14.0788083250299</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>119.9904097635903</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6088509072825</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2653461765491</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>115.1165353722832</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>117.9816164728984</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.0311578398786</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,16 +1694,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>14.02661070418087</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>85.50129172214159</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>16.68757696179511</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>150.6847227126468</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>128.3004358894264</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>236.6106609872241</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.456834824088095</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>152.1880189255983</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>54.44663919424247</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>228.4010902861367</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>15.07631541487278</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>96.26757873844505</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,10 +2165,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,10 +2177,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>29.38391736390379</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>147.6938511001821</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.781652662641354</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>43.03218749909099</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>388.9701345428933</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>18.66629832321886</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.93784657305854</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749143</v>
+        <v>6.456834824088095</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>70.48633311208263</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>122.149994554684</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>324.7801585504183</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006114</v>
+        <v>24.07293100951583</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>17.93784657305899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>114.7943575370063</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>115.9274873119628</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>72.34519160871301</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -2848,10 +2848,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>302.1569439836617</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2876,19 +2876,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>56.31317671406645</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>91.68674581998047</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>92.96858446130976</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>61.15426918750887</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>340.8226217173241</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006114</v>
+        <v>8.316764659804784</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>93.72700595910894</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>109.7384251876795</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>268.7418428881281</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>99.14237835397452</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>198.7298440802685</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>52.28744435919795</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>115.0263176067414</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.781652662641354</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>373.5963166213542</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>127.5129252748941</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3584,22 +3584,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>34.31317680226898</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>94.06259899123535</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>11.84682997184779</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>13.63855752214131</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.749645884647249</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>200.2764367340749</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>89.18211739820521</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32.05059883298339</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>101.5289465722274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>203.8766041230045</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>140.836644633268</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>45.56224815806257</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4112,7 +4112,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>141.4919670529475</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>93.9814990849477</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.2591398496931</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>132.7447050367114</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>132.7447050367114</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W2" t="n">
-        <v>53.75394372784808</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X2" t="n">
-        <v>53.75394372784808</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>602.5722756181267</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C3" t="n">
-        <v>428.1192463369997</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>830.7958938817376</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>602.5722756181267</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>602.5722756181267</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y3" t="n">
-        <v>602.5722756181267</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460863</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>315.6850394389064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>72.23626279480629</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,19 +4910,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
         <v>19.28114311021272</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1041.491250111708</v>
+        <v>928.3704397291879</v>
       </c>
       <c r="C11" t="n">
-        <v>1041.491250111708</v>
+        <v>928.3704397291879</v>
       </c>
       <c r="D11" t="n">
-        <v>1041.491250111708</v>
+        <v>928.3704397291879</v>
       </c>
       <c r="E11" t="n">
-        <v>1041.491250111708</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F11" t="n">
-        <v>630.5053453221001</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
@@ -5041,52 +5041,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275673</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
         <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S11" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T11" t="n">
-        <v>2270.376276991246</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="U11" t="n">
-        <v>2098.788550986472</v>
+        <v>2036.172499112692</v>
       </c>
       <c r="V11" t="n">
-        <v>1767.725663642902</v>
+        <v>1705.109611769121</v>
       </c>
       <c r="W11" t="n">
-        <v>1414.957008372787</v>
+        <v>1705.109611769121</v>
       </c>
       <c r="X11" t="n">
-        <v>1041.491250111708</v>
+        <v>1705.109611769121</v>
       </c>
       <c r="Y11" t="n">
-        <v>1041.491250111708</v>
+        <v>1314.97027979331</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>850.8043343374655</v>
+        <v>843.8100588399047</v>
       </c>
       <c r="C12" t="n">
-        <v>676.3513050563386</v>
+        <v>669.3570295587778</v>
       </c>
       <c r="D12" t="n">
-        <v>527.4168953950873</v>
+        <v>520.4226198975265</v>
       </c>
       <c r="E12" t="n">
-        <v>368.1794403896317</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6448824165167</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5120,25 +5120,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M12" t="n">
         <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156132</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
@@ -5147,25 +5147,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.528760559709</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>1983.986062613739</v>
+        <v>2145.207124136246</v>
       </c>
       <c r="U12" t="n">
-        <v>1755.805598267897</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V12" t="n">
-        <v>1520.653490036154</v>
+        <v>1681.874551558661</v>
       </c>
       <c r="W12" t="n">
-        <v>1266.416133307952</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X12" t="n">
-        <v>1058.56463310242</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.8043343374655</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T13" t="n">
-        <v>477.1975166923213</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="U13" t="n">
-        <v>477.1975166923213</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V13" t="n">
-        <v>477.1975166923213</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W13" t="n">
-        <v>477.1975166923213</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>249.207965794304</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.761180647701</v>
+        <v>1493.73264649972</v>
       </c>
       <c r="C14" t="n">
-        <v>1369.761180647701</v>
+        <v>1374.559296527095</v>
       </c>
       <c r="D14" t="n">
-        <v>1369.761180647701</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="E14" t="n">
-        <v>1369.761180647701</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F14" t="n">
-        <v>958.7752758580937</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5278,52 +5278,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.963399967084</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="V14" t="n">
-        <v>1759.900512623513</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.900512623513</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="X14" t="n">
-        <v>1759.900512623513</v>
+        <v>1493.73264649972</v>
       </c>
       <c r="Y14" t="n">
-        <v>1369.761180647701</v>
+        <v>1493.73264649972</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>735.3105217676085</v>
+        <v>843.8100588399047</v>
       </c>
       <c r="C15" t="n">
-        <v>560.8574924864815</v>
+        <v>669.3570295587778</v>
       </c>
       <c r="D15" t="n">
-        <v>411.9230828252303</v>
+        <v>520.4226198975265</v>
       </c>
       <c r="E15" t="n">
-        <v>252.6856278197748</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5363,46 +5363,46 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161161</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832905</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>2036.70758706395</v>
+        <v>2145.207124136246</v>
       </c>
       <c r="U15" t="n">
-        <v>1808.527122718107</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V15" t="n">
-        <v>1573.375014486365</v>
+        <v>1681.874551558661</v>
       </c>
       <c r="W15" t="n">
-        <v>1319.137657758163</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X15" t="n">
-        <v>1111.28615755263</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y15" t="n">
-        <v>903.5258587876765</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>193.7849439395547</v>
+        <v>379.7790225382928</v>
       </c>
       <c r="C16" t="n">
-        <v>193.7849439395547</v>
+        <v>379.7790225382928</v>
       </c>
       <c r="D16" t="n">
-        <v>193.7849439395547</v>
+        <v>379.7790225382928</v>
       </c>
       <c r="E16" t="n">
-        <v>193.7849439395547</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G16" t="n">
         <v>46.89499644164432</v>
@@ -5439,7 +5439,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200977</v>
@@ -5457,31 +5457,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W16" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X16" t="n">
-        <v>414.5775230830848</v>
+        <v>379.7790225382928</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.7849439395547</v>
+        <v>379.7790225382928</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1286.788427385932</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C17" t="n">
-        <v>917.8259104455201</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D17" t="n">
-        <v>917.8259104455201</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E17" t="n">
-        <v>788.2295105572106</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F17" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G17" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
         <v>46.89499644164432</v>
@@ -5515,10 +5515,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
         <v>762.5916738244548</v>
@@ -5527,10 +5527,10 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O17" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P17" t="n">
         <v>2224.886645733486</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>2050.393517622823</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U17" t="n">
-        <v>2050.393517622823</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="V17" t="n">
-        <v>2050.393517622823</v>
+        <v>1793.704175370223</v>
       </c>
       <c r="W17" t="n">
-        <v>2050.393517622823</v>
+        <v>1440.935520100109</v>
       </c>
       <c r="X17" t="n">
-        <v>1676.927759361743</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="Y17" t="n">
-        <v>1286.788427385932</v>
+        <v>1201.934852436247</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>676.0544483625931</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C18" t="n">
-        <v>501.6014190814661</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D18" t="n">
-        <v>352.6670094202149</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E18" t="n">
-        <v>193.4295544147593</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F18" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G18" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
         <v>46.89499644164432</v>
@@ -5594,52 +5594,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2338.227766704349</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2176.994211604904</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T18" t="n">
-        <v>1977.451513658935</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U18" t="n">
-        <v>1749.271049313092</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V18" t="n">
-        <v>1514.118941081349</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W18" t="n">
-        <v>1259.881584353148</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X18" t="n">
-        <v>1052.030084147615</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y18" t="n">
-        <v>844.2697853826612</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="19">
@@ -5694,31 +5694,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S19" t="n">
-        <v>566.7843137019199</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T19" t="n">
-        <v>566.7843137019199</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="U19" t="n">
-        <v>277.603168447843</v>
+        <v>101.8916016883539</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>101.8916016883539</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>101.8916016883539</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>101.8916016883539</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>101.8916016883539</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1185.109116778414</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="C20" t="n">
-        <v>816.1465998380024</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="D20" t="n">
-        <v>457.8809012312519</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E20" t="n">
-        <v>457.8809012312519</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2087.181164129221</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>1867.198404760799</v>
+        <v>2146.326107791027</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.411982645667</v>
+        <v>1892.539685675895</v>
       </c>
       <c r="V20" t="n">
-        <v>1282.349095302096</v>
+        <v>1892.539685675895</v>
       </c>
       <c r="W20" t="n">
-        <v>1282.349095302096</v>
+        <v>1539.771030405781</v>
       </c>
       <c r="X20" t="n">
-        <v>1185.109116778414</v>
+        <v>1539.771030405781</v>
       </c>
       <c r="Y20" t="n">
-        <v>1185.109116778414</v>
+        <v>1149.631698429969</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>680.7073555380667</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C21" t="n">
-        <v>506.2543262569397</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D21" t="n">
-        <v>506.2543262569397</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M21" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
         <v>1486.172378671464</v>
@@ -5855,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673871</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401369</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y21" t="n">
-        <v>848.9226925581347</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="22">
@@ -5931,25 +5931,25 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R22" t="n">
-        <v>563.9745635376357</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S22" t="n">
-        <v>563.9745635376357</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T22" t="n">
-        <v>336.0761416957212</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V22" t="n">
-        <v>46.89499644164432</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W22" t="n">
-        <v>46.89499644164432</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X22" t="n">
         <v>46.89499644164432</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>754.3641511654837</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C23" t="n">
-        <v>754.3641511654837</v>
+        <v>825.5823748407909</v>
       </c>
       <c r="D23" t="n">
-        <v>396.0984525587332</v>
+        <v>825.5823748407909</v>
       </c>
       <c r="E23" t="n">
-        <v>396.0984525587332</v>
+        <v>439.7941222425466</v>
       </c>
       <c r="F23" t="n">
-        <v>396.0984525587332</v>
+        <v>439.7941222425466</v>
       </c>
       <c r="G23" t="n">
-        <v>396.0984525587332</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H23" t="n">
-        <v>65.74984323277448</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1514.429749490685</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>1140.963991229605</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y23" t="n">
-        <v>1140.963991229605</v>
+        <v>1581.144731845324</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.2290650326996</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>597.7760357515726</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>597.7760357515726</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>438.5385807461172</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F24" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
         <v>46.89499644164432</v>
@@ -6077,7 +6077,7 @@
         <v>705.6153558007834</v>
       </c>
       <c r="M24" t="n">
-        <v>974.44769738329</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
         <v>1486.172378671464</v>
@@ -6092,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673871</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401369</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.348101975183</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.0933127164753</v>
+        <v>484.384740552791</v>
       </c>
       <c r="C25" t="n">
-        <v>118.0933127164753</v>
+        <v>484.384740552791</v>
       </c>
       <c r="D25" t="n">
-        <v>118.0933127164753</v>
+        <v>334.2681011404553</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>334.2681011404553</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I25" t="n">
         <v>46.89499644164432</v>
@@ -6168,31 +6168,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q25" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R25" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S25" t="n">
-        <v>566.7843137019199</v>
+        <v>484.384740552791</v>
       </c>
       <c r="T25" t="n">
-        <v>338.8858918600054</v>
+        <v>484.384740552791</v>
       </c>
       <c r="U25" t="n">
-        <v>338.8858918600054</v>
+        <v>484.384740552791</v>
       </c>
       <c r="V25" t="n">
-        <v>338.8858918600054</v>
+        <v>484.384740552791</v>
       </c>
       <c r="W25" t="n">
-        <v>338.8858918600054</v>
+        <v>484.384740552791</v>
       </c>
       <c r="X25" t="n">
-        <v>338.8858918600054</v>
+        <v>484.384740552791</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.0933127164753</v>
+        <v>484.384740552791</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>793.2275301713032</v>
+        <v>1212.631670769908</v>
       </c>
       <c r="C26" t="n">
-        <v>793.2275301713032</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D26" t="n">
-        <v>465.1667639587595</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E26" t="n">
-        <v>465.1667639587595</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F26" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164432</v>
@@ -6226,52 +6226,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O26" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q26" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2320.433730153412</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2320.433730153412</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2320.433730153412</v>
       </c>
       <c r="U26" t="n">
-        <v>1867.1984047608</v>
+        <v>2320.433730153412</v>
       </c>
       <c r="V26" t="n">
-        <v>1536.135517417229</v>
+        <v>1989.370842809841</v>
       </c>
       <c r="W26" t="n">
-        <v>1183.366862147115</v>
+        <v>1989.370842809841</v>
       </c>
       <c r="X26" t="n">
-        <v>1183.366862147115</v>
+        <v>1989.370842809841</v>
       </c>
       <c r="Y26" t="n">
-        <v>793.2275301713032</v>
+        <v>1599.231510834029</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>790.3481019751835</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C27" t="n">
-        <v>615.8950726940565</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D27" t="n">
-        <v>597.7760357515726</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E27" t="n">
-        <v>438.5385807461172</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6305,16 +6305,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161161</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832905</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
         <v>1486.172378671464</v>
@@ -6341,16 +6341,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W27" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239744</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415813</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>162.8488929436709</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>162.8488929436709</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6387,7 +6387,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200977</v>
@@ -6408,28 +6408,28 @@
         <v>607.7685734363101</v>
       </c>
       <c r="R28" t="n">
-        <v>453.4106385108906</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S28" t="n">
-        <v>453.4106385108906</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T28" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U28" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V28" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1209.220715163754</v>
+        <v>1335.016872466523</v>
       </c>
       <c r="C29" t="n">
-        <v>1209.220715163754</v>
+        <v>1335.016872466523</v>
       </c>
       <c r="D29" t="n">
-        <v>850.9550165570038</v>
+        <v>1335.016872466523</v>
       </c>
       <c r="E29" t="n">
-        <v>465.1667639587595</v>
+        <v>949.2286198682791</v>
       </c>
       <c r="F29" t="n">
-        <v>465.1667639587595</v>
+        <v>538.2427150786716</v>
       </c>
       <c r="G29" t="n">
-        <v>46.89499644164432</v>
+        <v>119.9709475615564</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6463,22 +6463,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O29" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P29" t="n">
         <v>2224.886645733486</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129221</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.198404760799</v>
+        <v>1941.57194985177</v>
       </c>
       <c r="U29" t="n">
-        <v>1867.198404760799</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V29" t="n">
-        <v>1561.989370433868</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W29" t="n">
-        <v>1209.220715163754</v>
+        <v>1335.016872466523</v>
       </c>
       <c r="X29" t="n">
-        <v>1209.220715163754</v>
+        <v>1335.016872466523</v>
       </c>
       <c r="Y29" t="n">
-        <v>1209.220715163754</v>
+        <v>1335.016872466523</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551149</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739879</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127367</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="E30" t="n">
-        <v>139.5078710072812</v>
+        <v>348.8860194538774</v>
       </c>
       <c r="F30" t="n">
-        <v>139.5078710072812</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G30" t="n">
-        <v>139.5078710072812</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6545,7 +6545,7 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076318</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
         <v>491.2196383161157</v>
@@ -6566,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673871</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401369</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.348101975183</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>215.8311793695512</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>438.8323905084033</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>288.7157510960675</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>140.8026575136744</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>140.8026575136744</v>
       </c>
       <c r="G31" t="n">
         <v>46.89499644164432</v>
@@ -6642,31 +6642,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q31" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R31" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T31" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U31" t="n">
-        <v>277.603168447843</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V31" t="n">
-        <v>277.603168447843</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W31" t="n">
-        <v>277.603168447843</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X31" t="n">
-        <v>215.8311793695512</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.8311793695512</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>925.4613692073401</v>
+        <v>746.2061227080147</v>
       </c>
       <c r="C32" t="n">
-        <v>556.4988522669285</v>
+        <v>377.243605767603</v>
       </c>
       <c r="D32" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E32" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O32" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P32" t="n">
         <v>2224.886645733486</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991245</v>
+        <v>2336.349049698575</v>
       </c>
       <c r="S32" t="n">
-        <v>2270.376276991245</v>
+        <v>2336.349049698575</v>
       </c>
       <c r="T32" t="n">
-        <v>2270.376276991245</v>
+        <v>2116.366290330153</v>
       </c>
       <c r="U32" t="n">
-        <v>2016.589854876112</v>
+        <v>1862.57986821502</v>
       </c>
       <c r="V32" t="n">
-        <v>1685.526967532542</v>
+        <v>1862.57986821502</v>
       </c>
       <c r="W32" t="n">
-        <v>1685.526967532542</v>
+        <v>1509.811212944906</v>
       </c>
       <c r="X32" t="n">
-        <v>1312.061209271462</v>
+        <v>1136.345454683827</v>
       </c>
       <c r="Y32" t="n">
-        <v>1312.061209271462</v>
+        <v>746.2061227080147</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>735.3105217676085</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C33" t="n">
-        <v>560.8574924864815</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D33" t="n">
-        <v>411.9230828252303</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E33" t="n">
-        <v>252.6856278197748</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F33" t="n">
-        <v>252.6856278197748</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6782,22 +6782,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076318</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161157</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M33" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6821,10 +6821,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1111.28615755263</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y33" t="n">
-        <v>903.5258587876765</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q34" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R34" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S34" t="n">
-        <v>412.4263787765004</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T34" t="n">
-        <v>301.5794846475312</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U34" t="n">
-        <v>301.5794846475312</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W34" t="n">
         <v>46.89499644164432</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1542.980280095866</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="C35" t="n">
-        <v>1174.017763155455</v>
+        <v>1367.273433799587</v>
       </c>
       <c r="D35" t="n">
-        <v>1174.017763155455</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="E35" t="n">
-        <v>788.2295105572106</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F35" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244548</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6955,34 +6955,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q35" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2170.232460472079</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2170.232460472079</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>1916.446038356946</v>
+        <v>2144.012605839521</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.446038356946</v>
+        <v>2144.012605839521</v>
       </c>
       <c r="W35" t="n">
-        <v>1916.446038356946</v>
+        <v>2144.012605839521</v>
       </c>
       <c r="X35" t="n">
-        <v>1542.980280095866</v>
+        <v>2144.012605839521</v>
       </c>
       <c r="Y35" t="n">
-        <v>1542.980280095866</v>
+        <v>1753.873273863709</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551149</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>569.3171645922887</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>420.3827549310374</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>261.1452999255819</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7019,13 +7019,13 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076323</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M36" t="n">
-        <v>974.44769738329</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N36" t="n">
         <v>1486.172378671464</v>
@@ -7049,19 +7049,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673871</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401369</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.348101975183</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7098,7 +7098,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200977</v>
@@ -7116,31 +7116,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R37" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S37" t="n">
-        <v>563.9745635376357</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T37" t="n">
-        <v>336.0761416957212</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="U37" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="V37" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="W37" t="n">
-        <v>46.89499644164432</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="X37" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>163.0831960444135</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.857513382056</v>
+        <v>1377.970252133248</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
         <v>762.5916738244548</v>
@@ -7186,10 +7186,10 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P38" t="n">
         <v>2224.886645733486</v>
@@ -7201,25 +7201,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129221</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.198404760799</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U38" t="n">
-        <v>1867.198404760799</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V38" t="n">
-        <v>1536.135517417229</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W38" t="n">
-        <v>1183.366862147114</v>
+        <v>2141.57534237014</v>
       </c>
       <c r="X38" t="n">
-        <v>1183.366862147114</v>
+        <v>1768.10958410906</v>
       </c>
       <c r="Y38" t="n">
-        <v>793.2275301713028</v>
+        <v>1377.970252133248</v>
       </c>
     </row>
     <row r="39">
@@ -7232,19 +7232,19 @@
         <v>622.1327649551149</v>
       </c>
       <c r="C39" t="n">
-        <v>587.4729904073685</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D39" t="n">
-        <v>438.5385807461172</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="E39" t="n">
-        <v>438.5385807461172</v>
+        <v>288.4422806685324</v>
       </c>
       <c r="F39" t="n">
-        <v>292.0040227730022</v>
+        <v>141.9077226954174</v>
       </c>
       <c r="G39" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
         <v>46.89499644164432</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>386.97599429278</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>386.97599429278</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>386.97599429278</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>386.97599429278</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H40" t="n">
         <v>46.89499644164432</v>
@@ -7353,31 +7353,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R40" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S40" t="n">
-        <v>350.0884872080406</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T40" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U40" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V40" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>386.97599429278</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>774.1232119888066</v>
+        <v>1270.77894749272</v>
       </c>
       <c r="C41" t="n">
-        <v>405.1606950483948</v>
+        <v>1270.77894749272</v>
       </c>
       <c r="D41" t="n">
-        <v>46.89499644164432</v>
+        <v>1270.77894749272</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>884.9906948944754</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>474.0047901048678</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>55.73302258775266</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>55.73302258775266</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O41" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q41" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2050.393517622823</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1848.094086578303</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1517.031199234732</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W41" t="n">
-        <v>1164.262543964618</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="X41" t="n">
-        <v>1164.262543964618</v>
+        <v>1660.918279468531</v>
       </c>
       <c r="Y41" t="n">
-        <v>774.1232119888066</v>
+        <v>1270.77894749272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7493,13 +7493,13 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076323</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161161</v>
       </c>
       <c r="M42" t="n">
-        <v>974.44769738329</v>
+        <v>974.4476973832905</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7517,25 +7517,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2254.666875215342</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T42" t="n">
-        <v>2055.124177269372</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U42" t="n">
-        <v>1826.94371292353</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.1358488716802</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C43" t="n">
-        <v>385.1358488716802</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D43" t="n">
-        <v>385.1358488716802</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E43" t="n">
-        <v>385.1358488716802</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F43" t="n">
-        <v>238.2459013737698</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G43" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7572,7 +7572,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200977</v>
@@ -7590,31 +7590,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R43" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S43" t="n">
-        <v>566.7843137019199</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T43" t="n">
-        <v>566.7843137019199</v>
+        <v>505.2140819492118</v>
       </c>
       <c r="U43" t="n">
-        <v>566.7843137019199</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="V43" t="n">
-        <v>566.7843137019199</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="W43" t="n">
-        <v>566.7843137019199</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X43" t="n">
-        <v>566.7843137019199</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y43" t="n">
-        <v>566.7843137019199</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>621.7934771426667</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C44" t="n">
-        <v>252.830960202255</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D44" t="n">
-        <v>252.830960202255</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E44" t="n">
-        <v>252.830960202255</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>252.830960202255</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7648,7 +7648,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915533</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K44" t="n">
         <v>392.9020949275675</v>
@@ -7660,10 +7660,10 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T44" t="n">
-        <v>2124.767062713794</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="U44" t="n">
-        <v>2124.767062713794</v>
+        <v>1908.134280619522</v>
       </c>
       <c r="V44" t="n">
-        <v>2124.767062713794</v>
+        <v>1908.134280619522</v>
       </c>
       <c r="W44" t="n">
-        <v>1771.99840744368</v>
+        <v>1555.365625349408</v>
       </c>
       <c r="X44" t="n">
-        <v>1398.5326491826</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="Y44" t="n">
-        <v>1008.393317206788</v>
+        <v>791.7605351125167</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>707.3920504595965</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C45" t="n">
-        <v>707.3920504595965</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D45" t="n">
-        <v>558.4576407983452</v>
+        <v>359.1890647980816</v>
       </c>
       <c r="E45" t="n">
-        <v>399.2201857928898</v>
+        <v>199.9516097926261</v>
       </c>
       <c r="F45" t="n">
-        <v>252.6856278197748</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7742,37 +7742,37 @@
         <v>1700.568096156131</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U45" t="n">
-        <v>1780.608651410095</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V45" t="n">
-        <v>1545.456543178353</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W45" t="n">
-        <v>1291.219186450151</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X45" t="n">
-        <v>1083.367686244618</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y45" t="n">
-        <v>875.6073874796646</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>193.7849439395547</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C46" t="n">
-        <v>193.7849439395547</v>
+        <v>438.8323905084033</v>
       </c>
       <c r="D46" t="n">
-        <v>193.7849439395547</v>
+        <v>288.7157510960675</v>
       </c>
       <c r="E46" t="n">
-        <v>193.7849439395547</v>
+        <v>288.7157510960675</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>141.8258035981571</v>
       </c>
       <c r="G46" t="n">
         <v>46.89499644164432</v>
@@ -7839,19 +7839,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U46" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V46" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W46" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X46" t="n">
-        <v>414.5775230830848</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.7849439395547</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970533</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>154.2790145108659</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>309.749325445695</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>249.1437329574063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>214.8846069991547</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108655</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998484</v>
+        <v>200.8922269696947</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998529</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>249.1437329574063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928322</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998529</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>249.1437329574063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>330.2893092338455</v>
       </c>
       <c r="P45" t="n">
-        <v>101.9014378473434</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>81.3767091492557</v>
+        <v>237.1697495689513</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>37.65467069181059</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01236864116765446</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -23436,10 +23436,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>96.35409144694634</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>171.172798429253</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>247.2912752981091</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>2.057892002065387</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23582,16 +23582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>143.6184697512201</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>112.045979244368</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>129.7463856847741</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>157.3867970498209</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>63.84414551629374</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>253.6299341828354</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23791,16 +23791,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>133.120439691245</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571426</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.38246657340333</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>99.50696423532133</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>125.3853409876948</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>23.73655303769129</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>202.7066163598647</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>273.463521940024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>130.2373021845464</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>57.98884467712224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
-        <v>150.032702913524</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>209.105455824737</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>25.11891529905068</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>145.0188972264883</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>148.5953370768088</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
         <v>67.03858805571426</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.38246657340333</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.94762953448654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4465608509556</v>
@@ -24384,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620182</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>92.37887367425655</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
         <v>286.2893338015361</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>29.90288307026469</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>49.55687863054531</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>129.5072189915797</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>42.59243951281455</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24648,13 +24648,13 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>109.6919503115326</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>254.6999316239861</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>25.59531448647323</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24764,19 +24764,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>88.75603567931742</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14.27705323942895</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>74.47797638964586</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24894,7 +24894,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>164.5553862015283</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>13.86041990335889</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,10 +24934,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.31304498025635</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>112.0459792443685</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>115.8810124358159</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>17.54749091340801</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
-        <v>82.22078337942932</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>52.51871381371271</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>120.4210546291178</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>64.80566257519587</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>211.7472155662992</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.137525042126356</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
@@ -25411,7 +25411,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>221.7280434425189</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>138.3953221860468</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>42.63153801739952</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
         <v>67.03858805571426</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>133.5742180510834</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>139.0783256288916</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>211.9808801013541</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
         <v>286.2893338015361</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>154.93554966506</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>50.97212115990629</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,16 +25757,16 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>70.43910215024499</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>76.57988169550505</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>135.3959620179722</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288916</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25839,10 +25839,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>124.090491051268</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>210.2124457189394</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>110.4119132607132</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>99.50696423532131</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>84.40669264943685</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>73.46506176600792</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26079,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>95.03019395184305</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620938.3534568584</v>
+        <v>620938.3534568585</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620938.3534568584</v>
+        <v>620938.3534568583</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620938.3534568585</v>
+        <v>620938.3534568584</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620938.3534568585</v>
+        <v>620938.3534568584</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620938.3534568584</v>
+        <v>620938.3534568585</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620938.3534568585</v>
+        <v>620938.3534568584</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
         <v>356907.7346816904</v>
       </c>
       <c r="F2" t="n">
+        <v>356907.7346816905</v>
+      </c>
+      <c r="G2" t="n">
         <v>356907.7346816904</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>356907.7346816905</v>
-      </c>
-      <c r="H2" t="n">
-        <v>356907.7346816903</v>
       </c>
       <c r="I2" t="n">
         <v>356907.7346816905</v>
@@ -26343,16 +26343,16 @@
         <v>356907.7346816905</v>
       </c>
       <c r="L2" t="n">
-        <v>356907.7346816905</v>
+        <v>356907.7346816904</v>
       </c>
       <c r="M2" t="n">
         <v>356907.7346816904</v>
       </c>
       <c r="N2" t="n">
+        <v>356907.7346816906</v>
+      </c>
+      <c r="O2" t="n">
         <v>356907.7346816905</v>
-      </c>
-      <c r="O2" t="n">
-        <v>356907.7346816903</v>
       </c>
       <c r="P2" t="n">
         <v>356907.7346816904</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>52974.8893495167</v>
+        <v>52974.88934951671</v>
       </c>
       <c r="F4" t="n">
         <v>52974.8893495167</v>
@@ -26450,13 +26450,13 @@
         <v>52974.8893495167</v>
       </c>
       <c r="M4" t="n">
-        <v>52974.8893495167</v>
+        <v>52974.88934951671</v>
       </c>
       <c r="N4" t="n">
         <v>52974.8893495167</v>
       </c>
       <c r="O4" t="n">
-        <v>52974.8893495167</v>
+        <v>52974.88934951671</v>
       </c>
       <c r="P4" t="n">
         <v>52974.8893495167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95821.962801088</v>
+        <v>95821.96280108788</v>
       </c>
       <c r="C6" t="n">
         <v>176591.3943326357</v>
       </c>
       <c r="D6" t="n">
-        <v>176591.3943326353</v>
+        <v>176591.3943326356</v>
       </c>
       <c r="E6" t="n">
-        <v>-83901.21957222559</v>
+        <v>-91208.45883062179</v>
       </c>
       <c r="F6" t="n">
-        <v>261711.1232067271</v>
+        <v>254403.8839483309</v>
       </c>
       <c r="G6" t="n">
-        <v>261711.1232067272</v>
+        <v>254403.8839483308</v>
       </c>
       <c r="H6" t="n">
-        <v>261711.1232067271</v>
+        <v>254403.8839483309</v>
       </c>
       <c r="I6" t="n">
-        <v>261711.1232067272</v>
+        <v>254403.8839483309</v>
       </c>
       <c r="J6" t="n">
-        <v>198651.180607621</v>
+        <v>191343.9413492247</v>
       </c>
       <c r="K6" t="n">
-        <v>261711.1232067272</v>
+        <v>254403.8839483309</v>
       </c>
       <c r="L6" t="n">
-        <v>261711.1232067272</v>
+        <v>254403.8839483308</v>
       </c>
       <c r="M6" t="n">
-        <v>175692.5893866512</v>
+        <v>168385.3501282549</v>
       </c>
       <c r="N6" t="n">
-        <v>261711.1232067273</v>
+        <v>254403.883948331</v>
       </c>
       <c r="O6" t="n">
-        <v>261711.1232067271</v>
+        <v>254403.8839483309</v>
       </c>
       <c r="P6" t="n">
-        <v>261711.1232067271</v>
+        <v>254403.8839483308</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="G4" t="n">
         <v>586.187455520554</v>
@@ -26813,7 +26813,7 @@
         <v>586.187455520554</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="K4" t="n">
         <v>586.187455520554</v>
@@ -26822,13 +26822,13 @@
         <v>586.187455520554</v>
       </c>
       <c r="M4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="N4" t="n">
         <v>586.187455520554</v>
       </c>
       <c r="O4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="P4" t="n">
         <v>586.187455520554</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>117.1351857500687</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27423,25 +27423,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>271.0401150216383</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>58.53507313700862</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>68.23607968221197</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27557,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>118.3441281936695</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>189.8484676766033</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>288.9009862035136</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>38.02299200392821</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27754,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>61.52742449360861</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>339.4843154475679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>305.4078241810982</v>
       </c>
     </row>
     <row r="9">
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>55.26286608486788</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28058,7 +28058,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.4656039084742</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31758,43 +31758,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35503,13 +35503,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>156.722724872542</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
@@ -35746,7 +35746,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651352</v>
@@ -35974,7 +35974,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35983,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K21" t="n">
         <v>231.4844522093428</v>
@@ -36208,10 +36208,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>332.1534122685985</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
         <v>405.7701329255822</v>
@@ -36445,10 +36445,10 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M24" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
-        <v>217.3283173608307</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36913,10 +36913,10 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K30" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651352</v>
+        <v>156.7227248725415</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -37150,7 +37150,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K33" t="n">
-        <v>14.92312141674905</v>
+        <v>167.9114421664589</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
@@ -37168,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>14.9231214167495</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M36" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
         <v>516.8936174628016</v>
@@ -37788,7 +37788,7 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
-        <v>432.2802359107708</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N41" t="n">
         <v>424.4951865620588</v>
@@ -37861,13 +37861,13 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093428</v>
+        <v>14.9231214167495</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
       </c>
       <c r="M42" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.0609347978879</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38110,13 +38110,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>405.7701329255822</v>
+        <v>342.1971228826982</v>
       </c>
       <c r="P45" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
